--- a/data/trans_orig/iP30B6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30B6_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADFC10B0-EB3F-431F-B5C9-B8FD73CCA6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3146A182-64A4-4891-8541-A7D8388B089A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4E350978-B5DA-4642-A738-605222797BE1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{889909AF-9CE5-465A-9DDF-2D78EEDEB159}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,63 +243,6 @@
   </si>
   <si>
     <t>21,6%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
   </si>
   <si>
     <t>81,4%</t>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4416E9E3-D7B0-4737-9C5E-F19E582A7292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E2E881-E8FE-4E4C-A769-5E924017B128}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -961,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="D7" s="7">
-        <v>327513</v>
+        <v>165679</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +976,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>385</v>
+        <v>225</v>
       </c>
       <c r="I7" s="7">
-        <v>284362</v>
+        <v>159592</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +991,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>779</v>
+        <v>445</v>
       </c>
       <c r="N7" s="7">
-        <v>611875</v>
+        <v>325271</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1012,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7">
-        <v>74768</v>
+        <v>38795</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1027,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I8" s="7">
-        <v>65252</v>
+        <v>38675</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1042,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="N8" s="7">
-        <v>140019</v>
+        <v>77470</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7">
-        <v>402281</v>
+        <v>204474</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1078,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1093,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>939</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>751894</v>
+        <v>402741</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>220</v>
+        <v>394</v>
       </c>
       <c r="D10" s="7">
-        <v>165679</v>
+        <v>327513</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1131,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>225</v>
+        <v>385</v>
       </c>
       <c r="I10" s="7">
-        <v>159592</v>
+        <v>284362</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1146,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>445</v>
+        <v>779</v>
       </c>
       <c r="N10" s="7">
-        <v>325271</v>
+        <v>611875</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1167,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7">
-        <v>38795</v>
+        <v>74768</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1182,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7">
-        <v>38675</v>
+        <v>65252</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1197,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="N11" s="7">
-        <v>77470</v>
+        <v>140019</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>270</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>204474</v>
+        <v>402281</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1233,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1248,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="N12" s="7">
-        <v>402741</v>
+        <v>751894</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30B6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30B6_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3146A182-64A4-4891-8541-A7D8388B089A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9829256F-1F4C-4FB5-96EF-4181E5AC4FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{889909AF-9CE5-465A-9DDF-2D78EEDEB159}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A71C0BA-11A6-4C40-AD6E-E57EAA79E0EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si desayunan bollería industrial en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -65,238 +65,292 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
   </si>
   <si>
     <t>84,0%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -307,7 +361,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -403,39 +457,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -487,7 +541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -598,13 +652,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -613,6 +660,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -677,19 +731,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E2E881-E8FE-4E4C-A769-5E924017B128}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A22DF6-D719-4382-8471-80C827665EEB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -806,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>84199</v>
+        <v>7593</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -821,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>79400</v>
+        <v>4149</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -836,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>163599</v>
+        <v>11742</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -857,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7">
-        <v>18380</v>
+        <v>35551</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -872,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I5" s="7">
-        <v>13327</v>
+        <v>42144</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -887,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="N5" s="7">
-        <v>31707</v>
+        <v>77694</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -908,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>102579</v>
+        <v>43144</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -923,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>92727</v>
+        <v>46293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -938,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>195306</v>
+        <v>89436</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -961,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7">
-        <v>165679</v>
+        <v>31487</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>159592</v>
+        <v>30227</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>445</v>
+        <v>98</v>
       </c>
       <c r="N7" s="7">
-        <v>325271</v>
+        <v>61714</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="D8" s="7">
-        <v>38795</v>
+        <v>143230</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="I8" s="7">
-        <v>38675</v>
+        <v>128538</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>106</v>
+        <v>435</v>
       </c>
       <c r="N8" s="7">
-        <v>77470</v>
+        <v>271768</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>204474</v>
+        <v>174717</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>402741</v>
+        <v>333482</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>394</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>327513</v>
+        <v>40380</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1205,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>284362</v>
+        <v>33996</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1220,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>779</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>611875</v>
+        <v>74376</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1241,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="D11" s="7">
-        <v>74768</v>
+        <v>162098</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1256,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="I11" s="7">
-        <v>65252</v>
+        <v>142117</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1271,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>160</v>
+        <v>383</v>
       </c>
       <c r="N11" s="7">
-        <v>140019</v>
+        <v>304215</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402281</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>349614</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>939</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>751894</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1265,31 +1339,31 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>773</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>577392</v>
+        <v>52481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>758</v>
+        <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>523355</v>
+        <v>48883</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1301,10 +1375,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>1531</v>
+        <v>114</v>
       </c>
       <c r="N13" s="7">
-        <v>1100746</v>
+        <v>101364</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1322,10 +1396,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="D14" s="7">
-        <v>131942</v>
+        <v>236513</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1334,37 +1408,37 @@
         <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="7">
+        <v>284</v>
+      </c>
+      <c r="I14" s="7">
+        <v>210555</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>157</v>
-      </c>
-      <c r="I14" s="7">
-        <v>117254</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>568</v>
+      </c>
+      <c r="N14" s="7">
+        <v>447069</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>324</v>
-      </c>
-      <c r="N14" s="7">
-        <v>249196</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,55 +1447,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>288994</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>341</v>
+      </c>
+      <c r="I15" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>682</v>
+      </c>
+      <c r="N15" s="7">
+        <v>548433</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>167</v>
+      </c>
+      <c r="D16" s="7">
+        <v>131942</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>157</v>
+      </c>
+      <c r="I16" s="7">
+        <v>117254</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>324</v>
+      </c>
+      <c r="N16" s="7">
+        <v>249196</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>773</v>
+      </c>
+      <c r="D17" s="7">
+        <v>577391</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>758</v>
+      </c>
+      <c r="I17" s="7">
+        <v>523355</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1531</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1100746</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>940</v>
       </c>
-      <c r="D15" s="7">
-        <v>709334</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="D18" s="7">
+        <v>709333</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>915</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>640609</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1855</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1349942</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/iP30B6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30B6_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9829256F-1F4C-4FB5-96EF-4181E5AC4FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B32591-7282-4343-9FF8-F8C0257E6833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A71C0BA-11A6-4C40-AD6E-E57EAA79E0EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C71A6D1A-00F7-4F10-9145-E64A602B478A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si desayunan bollería industrial en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>17,6%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>82,4%</t>
   </si>
   <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,10 +137,10 @@
     <t>18,02%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>19,04%</t>
@@ -149,31 +149,31 @@
     <t>14,23%</t>
   </si>
   <si>
-    <t>24,83%</t>
+    <t>24,25%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>80,96%</t>
   </si>
   <si>
-    <t>75,17%</t>
+    <t>75,75%</t>
   </si>
   <si>
     <t>85,77%</t>
@@ -182,10 +182,10 @@
     <t>81,49%</t>
   </si>
   <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -194,55 +194,55 @@
     <t>19,94%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>19,3%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>80,7%</t>
   </si>
   <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>80,35%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -251,103 +251,109 @@
     <t>18,16%</t>
   </si>
   <si>
-    <t>23,39%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>81,84%</t>
   </si>
   <si>
-    <t>76,61%</t>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>81,52%</t>
   </si>
   <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A22DF6-D719-4382-8471-80C827665EEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE02FFC5-6D8B-4DF6-9490-50BF9ABEF963}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1354,10 +1360,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -1366,13 +1372,13 @@
         <v>48883</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -1381,13 +1387,13 @@
         <v>101364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,13 +1408,13 @@
         <v>236513</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -1417,13 +1423,13 @@
         <v>210555</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>568</v>
@@ -1432,13 +1438,13 @@
         <v>447069</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,13 +1512,13 @@
         <v>131942</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>157</v>
@@ -1521,13 +1527,13 @@
         <v>117254</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>324</v>
@@ -1536,13 +1542,13 @@
         <v>249196</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1563,13 @@
         <v>577391</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>758</v>
@@ -1572,13 +1578,13 @@
         <v>523355</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1531</v>
@@ -1587,13 +1593,13 @@
         <v>1100746</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30B6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30B6_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B32591-7282-4343-9FF8-F8C0257E6833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBABF9B0-3F96-4EFE-BE2F-7BDB0282451D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C71A6D1A-00F7-4F10-9145-E64A602B478A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{122B86F2-F105-4AEC-9B3C-AAE256A4CEBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si desayunan bollería industrial en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
   </si>
   <si>
     <t>85,64%</t>
   </si>
   <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE02FFC5-6D8B-4DF6-9490-50BF9ABEF963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34B2D04-549B-4B7C-8FE8-CEE2DFE41326}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>7593</v>
+        <v>4102</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>4149</v>
+        <v>7803</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +919,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>11742</v>
+        <v>11904</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D5" s="7">
-        <v>35551</v>
+        <v>42393</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I5" s="7">
-        <v>42144</v>
+        <v>37482</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +970,7 @@
         <v>145</v>
       </c>
       <c r="N5" s="7">
-        <v>77694</v>
+        <v>79875</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1044,7 +1044,7 @@
         <v>49</v>
       </c>
       <c r="D7" s="7">
-        <v>31487</v>
+        <v>29576</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1059,7 +1059,7 @@
         <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>30227</v>
+        <v>32929</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1074,7 @@
         <v>98</v>
       </c>
       <c r="N7" s="7">
-        <v>61714</v>
+        <v>62505</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1092,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D8" s="7">
-        <v>143230</v>
+        <v>129723</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1107,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="I8" s="7">
-        <v>128538</v>
+        <v>149030</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1125,7 +1125,7 @@
         <v>435</v>
       </c>
       <c r="N8" s="7">
-        <v>271768</v>
+        <v>278754</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1143,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1176,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1196,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>40380</v>
+        <v>33875</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1211,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>33996</v>
+        <v>43164</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1229,7 +1229,7 @@
         <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>74376</v>
+        <v>77039</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1247,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D11" s="7">
-        <v>162098</v>
+        <v>139197</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1262,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I11" s="7">
-        <v>142117</v>
+        <v>169326</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1280,7 +1280,7 @@
         <v>383</v>
       </c>
       <c r="N11" s="7">
-        <v>304215</v>
+        <v>308524</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1298,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1354,7 +1354,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>52481</v>
+        <v>46628</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1369,7 +1369,7 @@
         <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>48883</v>
+        <v>57315</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1384,7 +1384,7 @@
         <v>114</v>
       </c>
       <c r="N13" s="7">
-        <v>101364</v>
+        <v>103943</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1405,7 +1405,7 @@
         <v>284</v>
       </c>
       <c r="D14" s="7">
-        <v>236513</v>
+        <v>227639</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1420,7 +1420,7 @@
         <v>284</v>
       </c>
       <c r="I14" s="7">
-        <v>210555</v>
+        <v>247684</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1435,7 +1435,7 @@
         <v>568</v>
       </c>
       <c r="N14" s="7">
-        <v>447069</v>
+        <v>475323</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1456,7 +1456,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1471,7 +1471,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1486,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D16" s="7">
-        <v>131942</v>
+        <v>114180</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1521,10 +1521,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I16" s="7">
-        <v>117254</v>
+        <v>141210</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1539,7 +1539,7 @@
         <v>324</v>
       </c>
       <c r="N16" s="7">
-        <v>249196</v>
+        <v>255390</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1557,10 +1557,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="D17" s="7">
-        <v>577391</v>
+        <v>538954</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1572,10 +1572,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="I17" s="7">
-        <v>523355</v>
+        <v>603523</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1590,7 +1590,7 @@
         <v>1531</v>
       </c>
       <c r="N17" s="7">
-        <v>1100746</v>
+        <v>1142477</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -1608,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1641,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
